--- a/public/data/trad_Percechange2072_to_82.xlsx
+++ b/public/data/trad_Percechange2072_to_82.xlsx
@@ -776,25 +776,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.15</v>
+        <v>13.25</v>
       </c>
       <c r="C12" t="n">
-        <v>77.77</v>
+        <v>81.8</v>
       </c>
       <c r="D12" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>18.8</v>
+        <v>19.24</v>
       </c>
       <c r="F12" t="n">
-        <v>-36.35</v>
+        <v>-37.7</v>
       </c>
       <c r="G12" t="n">
-        <v>49.65</v>
+        <v>52.47</v>
       </c>
       <c r="H12" t="n">
-        <v>-4.76</v>
+        <v>-5.02</v>
       </c>
     </row>
   </sheetData>
